--- a/biology/Zoologie/Crotalus_mitchellii/Crotalus_mitchellii.xlsx
+++ b/biology/Zoologie/Crotalus_mitchellii/Crotalus_mitchellii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Crotalus mitchellii est une espèce de serpents de la famille des Viperidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Crotalus mitchellii est une espèce de serpents de la famille des Viperidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Basse-Californie du Sud au Mexique[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Basse-Californie du Sud au Mexique.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce serpent venimeux mesure généralement entre 90 et 100 cm pour les mâles, mais il existe de fortes variations entre les sous-espèces (environ 60 cm pour les plus petites à près de 140 cm pour les plus grandes).
 </t>
@@ -573,9 +589,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les sous-espèces Crotalus mitchellii angelensis[2] et Crotalus mitchellii pyrrhus[3] ont été élevées au rang d'espèce par Meik, Streicher, Lawing, Flores-Villela et Fujita en 2015[4] et Crotalus mitchellii muertensis[5] a été placée en synonymie avec cette dernière.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les sous-espèces Crotalus mitchellii angelensis et Crotalus mitchellii pyrrhus ont été élevées au rang d'espèce par Meik, Streicher, Lawing, Flores-Villela et Fujita en 2015 et Crotalus mitchellii muertensis a été placée en synonymie avec cette dernière.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur du médecin américain Silas Weir Mitchell (1829-1914), qui s'intéressait particulièrement aux venins de serpents[6].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur du médecin américain Silas Weir Mitchell (1829-1914), qui s'intéressait particulièrement aux venins de serpents.
 </t>
         </is>
       </c>
@@ -635,7 +655,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Cope, 1861 : Contributions to the ophiology of Lower California, Mexico and Central America. Proceedings of the Academy of Natural Sciences of Philadelphia, vol. 13, p. 292-306 (texte intégral).</t>
         </is>
